--- a/SE_Team2_usecase_description_final.xlsx
+++ b/SE_Team2_usecase_description_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SE_Team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F1EFE-4429-4DDE-A5A5-173CEF23CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A82876-0331-4FA6-88F2-AB0BAD4A2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9A1A4C-40C9-46E0-9101-937DFF5848E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2B9A1A4C-40C9-46E0-9101-937DFF5848E6}"/>
   </bookViews>
   <sheets>
     <sheet name="강지완" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="134">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,34 +125,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 관리자가 특정 대여소를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 시스템은 선택된 대여소의 상세정보 화면을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 관리자가 상세 정보 화면에서 삭제 버튼 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 시스템은 선택된 대여소의 삭제 여부를 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 관리자가 삭제를 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8. 시스템은 해당 대여소를 DB에서 삭제하고 리스트를 갱신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use Case Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9. 시스템은 삭제 확인 메시지를 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,9 +433,6 @@
     <t>5a. "상세내용 보기" 버튼을 클릭한다.</t>
   </si>
   <si>
-    <t>6a. 해당 자전거의 상세내용(자전거 ID, 자전거 제품명, 유형(일반/전기), 소속 대여소, 상태(사용 가능/수리 중))을 출력한다.</t>
-  </si>
-  <si>
     <t>5b. "항목 삭제" 버튼을 클릭한다.</t>
   </si>
   <si>
@@ -514,6 +487,68 @@
   </si>
   <si>
     <t>Use case Description: 자전거 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 관리자가 자전거 대여소 리스트에서 삭제 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 시스템은 선택된 대여소의 삭제 여부를 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 관리자가 삭제를 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 시스템은 해당 대여소를 DB에서 삭제하고 리스트를 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 시스템은 삭제 확인 메시지를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자전거 대여소 상세정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시스템은 자전거 대여소 리스트 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 관리자가 특정 대여소를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 시스템은 선택된 대여소의 상세정보 화면을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a. 해당 자전거의 상세정보를 볼 수 있는 화면으로 이동한다.</t>
+  </si>
+  <si>
+    <t>Use case Description: 자전거 상세정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 해당 자전거의 상세정보(자전거 ID, 자전거 제품명, 유형(일반/전기), 소속 대여소, 상태(사용 가능/수리 중))를 출력한다.</t>
+  </si>
+  <si>
+    <t>Use Case Description: 최준서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Description: 문재영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Description: 김동건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Description: 강지완</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +605,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,7 +621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -733,17 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -844,12 +875,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,10 +938,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -931,20 +965,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -982,72 +1010,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{F2F6C7F0-EA9F-4391-9CF3-DA7F20E9D0BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1379,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32EF711-E41E-4776-BBB7-C6C14271EF27}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1394,24 +1480,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="45"/>
+        <v>26</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
@@ -1420,35 +1506,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="9"/>
       <c r="C8" s="13" t="s">
         <v>9</v>
@@ -1462,13 +1548,13 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="57"/>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
@@ -1477,31 +1563,31 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
-        <v>30</v>
+      <c r="A14" s="53"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1509,13 +1595,13 @@
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
@@ -1524,52 +1610,52 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="9"/>
       <c r="C25" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1580,13 +1666,13 @@
       <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="51"/>
     </row>
     <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="26" t="s">
         <v>3</v>
       </c>
@@ -1595,70 +1681,111 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="36" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="36"/>
-    </row>
-    <row r="32" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="36" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="54"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="36"/>
-    </row>
-    <row r="34" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11" t="s">
-        <v>28</v>
+    <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="51"/>
+    </row>
+    <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+      <c r="B40" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="48"/>
+    </row>
+    <row r="43" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="54"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:A43"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A28:A37"/>
@@ -1680,7 +1807,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1691,52 +1818,56 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+        <v>26</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1746,115 +1877,125 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="12"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
-        <v>42</v>
+      <c r="B14" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="36"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
+      <c r="B19" s="35"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="36"/>
+        <v>43</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="12"/>
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
@@ -1863,36 +2004,38 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="B25" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="36"/>
+      <c r="B27" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1913,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8F49B4-7136-4F32-B897-793B17CCC984}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1925,10 +2068,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -1939,36 +2082,36 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1976,19 +2119,19 @@
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1996,19 +2139,19 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="7"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -2016,61 +2159,61 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="7"/>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="7"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2078,19 +2221,19 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2098,20 +2241,20 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="7"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2125,59 +2268,74 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="7"/>
-      <c r="F25" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2187,42 +2345,42 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -2231,83 +2389,101 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="35"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="7"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="7"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="7"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2317,7 +2493,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2339,10 +2515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2353,98 +2529,98 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="45"/>
+        <v>26</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="57"/>
+      <c r="B2" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="39"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36" t="s">
-        <v>112</v>
+      <c r="A5" s="42"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="36"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36" t="s">
-        <v>114</v>
+      <c r="A7" s="42"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="36"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36" t="s">
-        <v>116</v>
+      <c r="A9" s="42"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="36"/>
+        <v>110</v>
+      </c>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="53"/>
+      <c r="B13" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
@@ -2453,79 +2629,79 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="68"/>
+    </row>
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="71"/>
+    </row>
+    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="71"/>
+    </row>
+    <row r="21" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="74" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="36"/>
-    </row>
-    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="36"/>
-    </row>
-    <row r="21" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
-        <v>110</v>
+      <c r="B23" s="72"/>
+      <c r="C23" s="75" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="53"/>
+      <c r="B25" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="65"/>
     </row>
     <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="20" t="s">
         <v>3</v>
       </c>
@@ -2534,23 +2710,23 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="41"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C29" s="8"/>
     </row>
@@ -2558,20 +2734,20 @@
       <c r="A30" s="3"/>
       <c r="B30" s="9"/>
       <c r="C30" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="53"/>
+      <c r="B32" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="65"/>
     </row>
     <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="20" t="s">
         <v>3</v>
       </c>
@@ -2580,30 +2756,30 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="41"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C37" s="8"/>
     </row>
@@ -2611,11 +2787,37 @@
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
       <c r="C38" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="77"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="78"/>
+      <c r="B41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="79"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="80" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B2:C2"/>

--- a/SE_Team2_usecase_description_final.xlsx
+++ b/SE_Team2_usecase_description_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SE_Team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A82876-0331-4FA6-88F2-AB0BAD4A2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A99B7-11CB-415E-BC2C-89DCDDF7E341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2B9A1A4C-40C9-46E0-9101-937DFF5848E6}"/>
   </bookViews>
@@ -883,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1037,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,6 +1094,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,48 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,22 +1464,22 @@
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
@@ -1506,35 +1488,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="9"/>
       <c r="C8" s="13" t="s">
         <v>9</v>
@@ -1548,13 +1530,13 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="63"/>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
@@ -1563,28 +1545,28 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="35"/>
       <c r="C13" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="35"/>
       <c r="C14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
         <v>25</v>
@@ -1595,13 +1577,13 @@
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
@@ -1610,49 +1592,49 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="9"/>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -1666,13 +1648,13 @@
       <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
     </row>
     <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="26" t="s">
         <v>3</v>
       </c>
@@ -1681,63 +1663,63 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="30"/>
       <c r="C30" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="30"/>
       <c r="C32" s="48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="30" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="30"/>
       <c r="C34" s="48" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="30"/>
       <c r="C35" s="48" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="30"/>
       <c r="C36" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="49"/>
       <c r="C37" s="50" t="s">
         <v>22</v>
@@ -1747,13 +1729,13 @@
       <c r="A39" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="46" t="s">
         <v>3</v>
       </c>
@@ -1762,21 +1744,21 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="44"/>
       <c r="C41" s="47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="30" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="48"/>
     </row>
     <row r="43" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="49"/>
       <c r="C43" s="50" t="s">
         <v>126</v>
@@ -1820,23 +1802,23 @@
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
@@ -1852,14 +1834,10 @@
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
       <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
       <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1877,12 +1855,12 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
@@ -1898,8 +1876,6 @@
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
       <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1915,12 +1891,12 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
@@ -1938,12 +1914,10 @@
       <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="81"/>
       <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="35"/>
-      <c r="D16" s="81"/>
       <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
@@ -1952,19 +1926,16 @@
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="81"/>
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="81"/>
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="35"/>
-      <c r="D19" s="81"/>
       <c r="E19" s="8" t="s">
         <v>42</v>
       </c>
@@ -1974,19 +1945,16 @@
       <c r="C20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="81"/>
       <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="81"/>
       <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35"/>
-      <c r="D22" s="81"/>
       <c r="E22" s="8" t="s">
         <v>45</v>
       </c>
@@ -2004,12 +1972,12 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
@@ -2025,8 +1993,6 @@
       <c r="B27" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
       <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,25 +2036,25 @@
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
@@ -2268,13 +2234,13 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
@@ -2293,17 +2259,11 @@
       <c r="B22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
       <c r="F23" s="8" t="s">
         <v>59</v>
       </c>
@@ -2313,17 +2273,11 @@
       <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
       <c r="F25" s="21" t="s">
         <v>61</v>
       </c>
@@ -2333,9 +2287,6 @@
       <c r="B26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2352,13 +2303,13 @@
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
@@ -2377,9 +2328,6 @@
       <c r="B31" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
       <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2396,13 +2344,13 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
@@ -2421,17 +2369,11 @@
       <c r="B36" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
       <c r="F37" s="8" t="s">
         <v>83</v>
       </c>
@@ -2441,17 +2383,11 @@
       <c r="B38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
       <c r="F39" s="8" t="s">
         <v>85</v>
       </c>
@@ -2461,17 +2397,11 @@
       <c r="B40" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="42"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
       <c r="F41" s="8" t="s">
         <v>86</v>
       </c>
@@ -2481,9 +2411,6 @@
       <c r="B42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2518,7 +2445,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2531,22 +2458,22 @@
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +2482,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="44" t="s">
         <v>104</v>
       </c>
@@ -2614,10 +2541,10 @@
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="73"/>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
@@ -2630,15 +2557,15 @@
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2647,12 +2574,12 @@
       <c r="B17" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="34" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2661,33 +2588,33 @@
       <c r="B19" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="51" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="52" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="75" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="53" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2695,10 +2622,10 @@
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
@@ -2741,10 +2668,10 @@
       <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="73"/>
     </row>
     <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
@@ -2794,13 +2721,13 @@
       <c r="A40" s="1">
         <v>5</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="77"/>
+      <c r="C40" s="71"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
@@ -2809,9 +2736,9 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="27"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="56" t="s">
         <v>129</v>
       </c>
     </row>
